--- a/Data/Telecom Costs (Single Sheet).xlsx
+++ b/Data/Telecom Costs (Single Sheet).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-30620" yWindow="3600" windowWidth="28160" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="7300" yWindow="980" windowWidth="20860" windowHeight="14860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Data" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Country</t>
   </si>
   <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
     <t>Brunei Darussalam</t>
   </si>
   <si>
@@ -41,27 +38,15 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Iraq</t>
-  </si>
-  <si>
     <t>Lao PDR</t>
   </si>
   <si>
     <t>Malaysia</t>
   </si>
   <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
     <t>Myanmar</t>
   </si>
   <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
     <t>Philippines</t>
   </si>
   <si>
@@ -72,9 +57,6 @@
   </si>
   <si>
     <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
   </si>
   <si>
     <t>Vietnam</t>
@@ -470,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,79 +465,79 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>34</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>37</v>
-      </c>
-      <c r="U1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -563,76 +545,76 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.68</v>
+        <v>0.71</v>
       </c>
       <c r="C2">
-        <v>1.42</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D2">
-        <v>4.01</v>
+        <v>29.6</v>
       </c>
       <c r="E2">
-        <v>1009</v>
+        <v>32976</v>
       </c>
       <c r="F2">
-        <v>5.28</v>
+        <v>1.87</v>
       </c>
       <c r="G2">
-        <v>4.4400000000000004</v>
+        <v>51.3</v>
       </c>
       <c r="H2">
-        <v>12.59</v>
+        <v>78.28</v>
       </c>
       <c r="I2">
-        <v>0.25</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
       </c>
       <c r="K2">
-        <v>3.49</v>
+        <v>0.8</v>
       </c>
       <c r="L2">
-        <v>2.93</v>
+        <v>22.1</v>
       </c>
       <c r="M2">
-        <v>8.31</v>
+        <v>33.72</v>
       </c>
       <c r="N2">
-        <v>500</v>
+        <v>2048</v>
       </c>
       <c r="O2">
-        <v>3.49</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="P2">
-        <v>2.93</v>
+        <v>15.78</v>
       </c>
       <c r="Q2">
-        <v>8.31</v>
+        <v>24.09</v>
       </c>
       <c r="R2">
         <v>500</v>
       </c>
       <c r="S2">
-        <v>5.28</v>
+        <v>0.8</v>
       </c>
       <c r="T2">
-        <v>4.4400000000000004</v>
+        <v>22.1</v>
       </c>
       <c r="U2">
-        <v>12.59</v>
+        <v>33.72</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>5.28</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="X2">
-        <v>4.4400000000000004</v>
+        <v>15.78</v>
       </c>
       <c r="Y2">
-        <v>12.59</v>
+        <v>24.09</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -643,76 +625,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.71</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="C3">
-        <v>19.399999999999999</v>
+        <v>6.82</v>
       </c>
       <c r="D3">
-        <v>29.6</v>
+        <v>17.62</v>
       </c>
       <c r="E3">
-        <v>32976</v>
+        <v>949</v>
       </c>
       <c r="F3">
-        <v>1.87</v>
+        <v>12.64</v>
       </c>
       <c r="G3">
-        <v>51.3</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>78.28</v>
+        <v>25.83</v>
       </c>
       <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>5.17</v>
+      </c>
+      <c r="N3">
+        <v>600</v>
+      </c>
+      <c r="O3">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>5.17</v>
+      </c>
+      <c r="R3">
+        <v>600</v>
+      </c>
+      <c r="S3">
+        <v>3.15</v>
+      </c>
+      <c r="T3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="U3">
+        <v>6.44</v>
+      </c>
+      <c r="V3">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3">
-        <v>0.8</v>
-      </c>
-      <c r="L3">
-        <v>22.1</v>
-      </c>
-      <c r="M3">
-        <v>33.72</v>
-      </c>
-      <c r="N3">
-        <v>2048</v>
-      </c>
-      <c r="O3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="P3">
-        <v>15.78</v>
-      </c>
-      <c r="Q3">
-        <v>24.09</v>
-      </c>
-      <c r="R3">
-        <v>500</v>
-      </c>
-      <c r="S3">
-        <v>0.8</v>
-      </c>
-      <c r="T3">
-        <v>22.1</v>
-      </c>
-      <c r="U3">
-        <v>33.72</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
       <c r="W3">
-        <v>0.56999999999999995</v>
+        <v>3.16</v>
       </c>
       <c r="X3">
-        <v>15.78</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
-        <v>24.09</v>
+        <v>6.46</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -723,79 +705,79 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8.6199999999999992</v>
+        <v>1.69</v>
       </c>
       <c r="C4">
-        <v>6.82</v>
+        <v>5.05</v>
       </c>
       <c r="D4">
-        <v>17.62</v>
+        <v>13.67</v>
       </c>
       <c r="E4">
-        <v>949</v>
+        <v>3576</v>
       </c>
       <c r="F4">
-        <v>12.64</v>
+        <v>3.11</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>9.27</v>
       </c>
       <c r="H4">
-        <v>25.83</v>
+        <v>25.09</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>2.5299999999999998</v>
+        <v>1.56</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="M4">
-        <v>5.17</v>
+        <v>12.54</v>
       </c>
       <c r="N4">
-        <v>600</v>
+        <v>1624</v>
       </c>
       <c r="O4">
-        <v>2.5299999999999998</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="P4">
-        <v>2</v>
+        <v>3.37</v>
       </c>
       <c r="Q4">
-        <v>5.17</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="R4">
         <v>600</v>
       </c>
       <c r="S4">
-        <v>3.15</v>
+        <v>1.56</v>
       </c>
       <c r="T4">
-        <v>2.4900000000000002</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="U4">
-        <v>6.44</v>
+        <v>12.54</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>3.16</v>
+        <v>2.12</v>
       </c>
       <c r="X4">
-        <v>2.5</v>
+        <v>6.32</v>
       </c>
       <c r="Y4">
-        <v>6.46</v>
+        <v>17.11</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -803,79 +785,79 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.69</v>
+        <v>3.11</v>
       </c>
       <c r="C5">
-        <v>5.05</v>
+        <v>3.76</v>
       </c>
       <c r="D5">
-        <v>13.67</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E5">
-        <v>3576</v>
+        <v>1449</v>
       </c>
       <c r="F5">
-        <v>3.11</v>
+        <v>11.84</v>
       </c>
       <c r="G5">
-        <v>9.27</v>
+        <v>14.29</v>
       </c>
       <c r="H5">
-        <v>25.09</v>
+        <v>36.85</v>
       </c>
       <c r="I5">
         <v>0.5</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>1.56</v>
+        <v>4.12</v>
       </c>
       <c r="L5">
-        <v>4.6399999999999997</v>
+        <v>4.97</v>
       </c>
       <c r="M5">
-        <v>12.54</v>
+        <v>12.82</v>
       </c>
       <c r="N5">
-        <v>1624</v>
+        <v>1024</v>
       </c>
       <c r="O5">
-        <v>1.1299999999999999</v>
+        <v>4.12</v>
       </c>
       <c r="P5">
-        <v>3.37</v>
+        <v>4.97</v>
       </c>
       <c r="Q5">
-        <v>9.1199999999999992</v>
+        <v>12.82</v>
       </c>
       <c r="R5">
-        <v>600</v>
+        <v>1024</v>
       </c>
       <c r="S5">
-        <v>1.56</v>
+        <v>5.15</v>
       </c>
       <c r="T5">
-        <v>4.6399999999999997</v>
+        <v>6.21</v>
       </c>
       <c r="U5">
-        <v>12.54</v>
+        <v>16.02</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W5">
-        <v>2.12</v>
+        <v>5.15</v>
       </c>
       <c r="X5">
-        <v>6.32</v>
+        <v>6.21</v>
       </c>
       <c r="Y5">
-        <v>17.11</v>
+        <v>16.02</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -883,111 +865,138 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.8</v>
+        <v>0.68</v>
       </c>
       <c r="C6">
-        <v>10.07</v>
+        <v>5.87</v>
       </c>
       <c r="D6">
-        <v>19.61</v>
+        <v>12.08</v>
       </c>
       <c r="E6">
-        <v>6713</v>
+        <v>10420</v>
       </c>
       <c r="F6">
-        <v>34.49</v>
+        <v>3.1</v>
       </c>
       <c r="G6">
-        <v>192.97</v>
+        <v>26.89</v>
       </c>
       <c r="H6">
-        <v>375.98</v>
+        <v>55.36</v>
       </c>
       <c r="I6">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.99</v>
+      </c>
+      <c r="L6">
+        <v>8.56</v>
+      </c>
+      <c r="M6">
+        <v>17.61</v>
+      </c>
+      <c r="N6">
+        <v>800</v>
+      </c>
+      <c r="O6">
+        <v>0.99</v>
+      </c>
+      <c r="P6">
+        <v>8.56</v>
+      </c>
+      <c r="Q6">
+        <v>17.61</v>
+      </c>
+      <c r="R6">
+        <v>800</v>
+      </c>
+      <c r="S6">
+        <v>1.69</v>
+      </c>
+      <c r="T6">
+        <v>14.67</v>
+      </c>
+      <c r="U6">
+        <v>30.2</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>1.69</v>
+      </c>
+      <c r="X6">
+        <v>14.67</v>
+      </c>
+      <c r="Y6">
+        <v>30.2</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>3.11</v>
-      </c>
       <c r="C7">
-        <v>3.76</v>
+        <v>4.84</v>
       </c>
       <c r="D7">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E7">
-        <v>1449</v>
-      </c>
-      <c r="F7">
-        <v>11.84</v>
+        <v>16.7</v>
       </c>
       <c r="G7">
-        <v>14.29</v>
+        <v>21.5</v>
       </c>
       <c r="H7">
-        <v>36.85</v>
+        <v>74.22</v>
       </c>
       <c r="I7">
         <v>0.5</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7">
-        <v>4.12</v>
+        <v>16</v>
       </c>
       <c r="L7">
-        <v>4.97</v>
+        <v>10.16</v>
       </c>
       <c r="M7">
-        <v>12.82</v>
+        <v>35.07</v>
       </c>
       <c r="N7">
         <v>1024</v>
       </c>
-      <c r="O7">
-        <v>4.12</v>
-      </c>
       <c r="P7">
-        <v>4.97</v>
+        <v>10.16</v>
       </c>
       <c r="Q7">
-        <v>12.82</v>
+        <v>35.07</v>
       </c>
       <c r="R7">
         <v>1024</v>
       </c>
-      <c r="S7">
-        <v>5.15</v>
-      </c>
       <c r="T7">
-        <v>6.21</v>
+        <v>10.16</v>
       </c>
       <c r="U7">
-        <v>16.02</v>
+        <v>35.07</v>
       </c>
       <c r="V7">
-        <v>5</v>
-      </c>
-      <c r="W7">
-        <v>5.15</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>6.21</v>
+        <v>10.16</v>
       </c>
       <c r="Y7">
-        <v>16.02</v>
+        <v>35.07</v>
       </c>
       <c r="Z7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -995,76 +1004,76 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.68</v>
+        <v>3.76</v>
       </c>
       <c r="C8">
-        <v>5.87</v>
+        <v>10.24</v>
       </c>
       <c r="D8">
-        <v>12.08</v>
+        <v>23.47</v>
       </c>
       <c r="E8">
-        <v>10420</v>
+        <v>3267</v>
       </c>
       <c r="F8">
-        <v>3.1</v>
+        <v>8.27</v>
       </c>
       <c r="G8">
-        <v>26.89</v>
+        <v>22.5</v>
       </c>
       <c r="H8">
-        <v>55.36</v>
+        <v>51.59</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K8">
-        <v>0.99</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="L8">
-        <v>8.56</v>
+        <v>6.73</v>
       </c>
       <c r="M8">
-        <v>17.61</v>
+        <v>15.44</v>
       </c>
       <c r="N8">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O8">
-        <v>0.99</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="P8">
-        <v>8.56</v>
+        <v>6.73</v>
       </c>
       <c r="Q8">
-        <v>17.61</v>
+        <v>15.44</v>
       </c>
       <c r="R8">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="S8">
-        <v>1.69</v>
+        <v>8.27</v>
       </c>
       <c r="T8">
-        <v>14.67</v>
+        <v>22.5</v>
       </c>
       <c r="U8">
-        <v>30.2</v>
+        <v>51.59</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W8">
-        <v>1.69</v>
+        <v>4.13</v>
       </c>
       <c r="X8">
-        <v>14.67</v>
+        <v>11.24</v>
       </c>
       <c r="Y8">
-        <v>30.2</v>
+        <v>25.77</v>
       </c>
       <c r="Z8">
         <v>2</v>
@@ -1075,79 +1084,79 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.23</v>
+        <v>0.19</v>
       </c>
       <c r="C9">
-        <v>5.73</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="D9">
-        <v>7.46</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="E9">
-        <v>5594</v>
+        <v>53986</v>
       </c>
       <c r="F9">
-        <v>2.94</v>
+        <v>0.7</v>
       </c>
       <c r="G9">
-        <v>13.71</v>
+        <v>31.49</v>
       </c>
       <c r="H9">
-        <v>17.84</v>
+        <v>32.97</v>
       </c>
       <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>0.35</v>
+      </c>
+      <c r="L9">
+        <v>15.71</v>
+      </c>
+      <c r="M9">
+        <v>16.45</v>
+      </c>
+      <c r="N9">
+        <v>2048</v>
+      </c>
+      <c r="O9">
+        <v>0.26</v>
+      </c>
+      <c r="P9">
+        <v>11.84</v>
+      </c>
+      <c r="Q9">
+        <v>12.4</v>
+      </c>
+      <c r="R9">
+        <v>500</v>
+      </c>
+      <c r="S9">
+        <v>0.35</v>
+      </c>
+      <c r="T9">
+        <v>15.71</v>
+      </c>
+      <c r="U9">
+        <v>16.45</v>
+      </c>
+      <c r="V9">
         <v>2</v>
       </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L9">
-        <v>10.27</v>
-      </c>
-      <c r="M9">
-        <v>13.36</v>
-      </c>
-      <c r="N9">
-        <v>700</v>
-      </c>
-      <c r="O9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P9">
-        <v>10.27</v>
-      </c>
-      <c r="Q9">
-        <v>13.35</v>
-      </c>
-      <c r="R9">
-        <v>700</v>
-      </c>
-      <c r="S9">
-        <v>3.7</v>
-      </c>
-      <c r="T9">
-        <v>17.23</v>
-      </c>
-      <c r="U9">
-        <v>22.41</v>
-      </c>
-      <c r="V9">
-        <v>3</v>
-      </c>
       <c r="W9">
-        <v>2.96</v>
+        <v>0.49</v>
       </c>
       <c r="X9">
-        <v>13.78</v>
+        <v>22.1</v>
       </c>
       <c r="Y9">
-        <v>17.93</v>
+        <v>23.14</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -1155,76 +1164,76 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="C10">
-        <v>3.16</v>
+        <v>7.83</v>
       </c>
       <c r="D10">
-        <v>8.08</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="E10">
-        <v>3766</v>
+        <v>5335</v>
       </c>
       <c r="F10">
-        <v>2.2799999999999998</v>
+        <v>3.63</v>
       </c>
       <c r="G10">
-        <v>7.15</v>
+        <v>16.13</v>
       </c>
       <c r="H10">
-        <v>18.260000000000002</v>
+        <v>40.14</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>1.38</v>
       </c>
       <c r="L10">
-        <v>6.6</v>
+        <v>6.13</v>
       </c>
       <c r="M10">
-        <v>16.86</v>
+        <v>15.24</v>
       </c>
       <c r="N10">
-        <v>1024</v>
+        <v>500</v>
       </c>
       <c r="O10">
-        <v>2.1</v>
+        <v>1.38</v>
       </c>
       <c r="P10">
-        <v>6.6</v>
+        <v>6.13</v>
       </c>
       <c r="Q10">
-        <v>16.86</v>
+        <v>15.24</v>
       </c>
       <c r="R10">
-        <v>1024</v>
+        <v>500</v>
       </c>
       <c r="S10">
-        <v>2.1</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="T10">
-        <v>6.6</v>
+        <v>11.05</v>
       </c>
       <c r="U10">
-        <v>16.86</v>
+        <v>27.5</v>
       </c>
       <c r="V10">
         <v>1</v>
       </c>
       <c r="W10">
-        <v>2.1</v>
+        <v>2.76</v>
       </c>
       <c r="X10">
-        <v>6.6</v>
+        <v>12.28</v>
       </c>
       <c r="Y10">
-        <v>16.86</v>
+        <v>30.56</v>
       </c>
       <c r="Z10">
         <v>1</v>
@@ -1234,56 +1243,77 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>4.24</v>
+      </c>
       <c r="C11">
-        <v>4.84</v>
+        <v>14.04</v>
       </c>
       <c r="D11">
-        <v>16.7</v>
+        <v>20.84</v>
+      </c>
+      <c r="E11">
+        <v>3976</v>
+      </c>
+      <c r="F11">
+        <v>14.79</v>
       </c>
       <c r="G11">
-        <v>21.5</v>
+        <v>49</v>
       </c>
       <c r="H11">
-        <v>74.22</v>
+        <v>72.75</v>
       </c>
       <c r="I11">
-        <v>0.5</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>3.02</v>
       </c>
       <c r="L11">
-        <v>10.16</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>35.07</v>
+        <v>14.8</v>
       </c>
       <c r="N11">
-        <v>1024</v>
+        <v>800</v>
+      </c>
+      <c r="O11">
+        <v>3.02</v>
       </c>
       <c r="P11">
-        <v>10.16</v>
+        <v>10</v>
       </c>
       <c r="Q11">
-        <v>35.07</v>
+        <v>14.85</v>
       </c>
       <c r="R11">
-        <v>1024</v>
+        <v>650</v>
+      </c>
+      <c r="S11">
+        <v>3.77</v>
       </c>
       <c r="T11">
-        <v>10.16</v>
+        <v>12.5</v>
       </c>
       <c r="U11">
-        <v>35.07</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="V11">
         <v>1</v>
       </c>
+      <c r="W11">
+        <v>4.53</v>
+      </c>
       <c r="X11">
-        <v>10.16</v>
+        <v>15</v>
       </c>
       <c r="Y11">
-        <v>35.07</v>
+        <v>22.27</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -1294,558 +1324,78 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.88</v>
+        <v>3.12</v>
       </c>
       <c r="C12">
-        <v>2.12</v>
+        <v>4.53</v>
       </c>
       <c r="D12">
-        <v>7.41</v>
+        <v>11.18</v>
       </c>
       <c r="E12">
-        <v>1359</v>
+        <v>1738</v>
       </c>
       <c r="F12">
-        <v>4.3600000000000003</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>4.9400000000000004</v>
+        <v>2.89</v>
       </c>
       <c r="H12">
-        <v>17.22</v>
+        <v>7.15</v>
       </c>
       <c r="I12">
+        <v>2.5</v>
+      </c>
+      <c r="J12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
       <c r="K12">
-        <v>4.37</v>
+        <v>1.96</v>
       </c>
       <c r="L12">
-        <v>4.95</v>
+        <v>2.84</v>
       </c>
       <c r="M12">
-        <v>17.25</v>
+        <v>7.01</v>
       </c>
       <c r="N12">
-        <v>3072</v>
+        <v>500</v>
       </c>
       <c r="O12">
-        <v>1.31</v>
+        <v>7.31</v>
       </c>
       <c r="P12">
-        <v>1.48</v>
+        <v>10.59</v>
       </c>
       <c r="Q12">
-        <v>5.17</v>
+        <v>26.16</v>
       </c>
       <c r="R12">
-        <v>1024</v>
+        <v>4200</v>
       </c>
       <c r="S12">
-        <v>10.47</v>
+        <v>3.92</v>
       </c>
       <c r="T12">
-        <v>11.86</v>
+        <v>5.67</v>
       </c>
       <c r="U12">
-        <v>41.36</v>
+        <v>14.02</v>
       </c>
       <c r="V12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>8.74</v>
+        <v>3.92</v>
       </c>
       <c r="X12">
-        <v>9.89</v>
+        <v>5.67</v>
       </c>
       <c r="Y12">
-        <v>34.5</v>
+        <v>14.02</v>
       </c>
       <c r="Z12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>3.76</v>
-      </c>
-      <c r="C13">
-        <v>10.24</v>
-      </c>
-      <c r="D13">
-        <v>23.47</v>
-      </c>
-      <c r="E13">
-        <v>3267</v>
-      </c>
-      <c r="F13">
-        <v>8.27</v>
-      </c>
-      <c r="G13">
-        <v>22.5</v>
-      </c>
-      <c r="H13">
-        <v>51.59</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="L13">
-        <v>6.73</v>
-      </c>
-      <c r="M13">
-        <v>15.44</v>
-      </c>
-      <c r="N13">
-        <v>700</v>
-      </c>
-      <c r="O13">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="P13">
-        <v>6.73</v>
-      </c>
-      <c r="Q13">
-        <v>15.44</v>
-      </c>
-      <c r="R13">
-        <v>700</v>
-      </c>
-      <c r="S13">
-        <v>8.27</v>
-      </c>
-      <c r="T13">
-        <v>22.5</v>
-      </c>
-      <c r="U13">
-        <v>51.59</v>
-      </c>
-      <c r="V13">
-        <v>5</v>
-      </c>
-      <c r="W13">
-        <v>4.13</v>
-      </c>
-      <c r="X13">
-        <v>11.24</v>
-      </c>
-      <c r="Y13">
-        <v>25.77</v>
-      </c>
-      <c r="Z13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0.19</v>
-      </c>
-      <c r="C14">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="D14">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="E14">
-        <v>53986</v>
-      </c>
-      <c r="F14">
-        <v>0.7</v>
-      </c>
-      <c r="G14">
-        <v>31.49</v>
-      </c>
-      <c r="H14">
-        <v>32.97</v>
-      </c>
-      <c r="I14">
-        <v>100</v>
-      </c>
-      <c r="J14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14">
-        <v>0.35</v>
-      </c>
-      <c r="L14">
-        <v>15.71</v>
-      </c>
-      <c r="M14">
-        <v>16.45</v>
-      </c>
-      <c r="N14">
-        <v>2048</v>
-      </c>
-      <c r="O14">
-        <v>0.26</v>
-      </c>
-      <c r="P14">
-        <v>11.84</v>
-      </c>
-      <c r="Q14">
-        <v>12.4</v>
-      </c>
-      <c r="R14">
-        <v>500</v>
-      </c>
-      <c r="S14">
-        <v>0.35</v>
-      </c>
-      <c r="T14">
-        <v>15.71</v>
-      </c>
-      <c r="U14">
-        <v>16.45</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
-      <c r="W14">
-        <v>0.49</v>
-      </c>
-      <c r="X14">
-        <v>22.1</v>
-      </c>
-      <c r="Y14">
-        <v>23.14</v>
-      </c>
-      <c r="Z14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1.76</v>
-      </c>
-      <c r="C15">
-        <v>7.83</v>
-      </c>
-      <c r="D15">
-        <v>19.489999999999998</v>
-      </c>
-      <c r="E15">
-        <v>5335</v>
-      </c>
-      <c r="F15">
-        <v>3.63</v>
-      </c>
-      <c r="G15">
-        <v>16.13</v>
-      </c>
-      <c r="H15">
-        <v>40.14</v>
-      </c>
-      <c r="I15">
-        <v>6</v>
-      </c>
-      <c r="J15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15">
-        <v>1.38</v>
-      </c>
-      <c r="L15">
-        <v>6.13</v>
-      </c>
-      <c r="M15">
-        <v>15.24</v>
-      </c>
-      <c r="N15">
-        <v>500</v>
-      </c>
-      <c r="O15">
-        <v>1.38</v>
-      </c>
-      <c r="P15">
-        <v>6.13</v>
-      </c>
-      <c r="Q15">
-        <v>15.24</v>
-      </c>
-      <c r="R15">
-        <v>500</v>
-      </c>
-      <c r="S15">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="T15">
-        <v>11.05</v>
-      </c>
-      <c r="U15">
-        <v>27.5</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <v>2.76</v>
-      </c>
-      <c r="X15">
-        <v>12.28</v>
-      </c>
-      <c r="Y15">
-        <v>30.56</v>
-      </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>4.24</v>
-      </c>
-      <c r="C16">
-        <v>14.04</v>
-      </c>
-      <c r="D16">
-        <v>20.84</v>
-      </c>
-      <c r="E16">
-        <v>3976</v>
-      </c>
-      <c r="F16">
-        <v>14.79</v>
-      </c>
-      <c r="G16">
-        <v>49</v>
-      </c>
-      <c r="H16">
-        <v>72.75</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>6</v>
-      </c>
-      <c r="K16">
-        <v>3.02</v>
-      </c>
-      <c r="L16">
-        <v>10</v>
-      </c>
-      <c r="M16">
-        <v>14.8</v>
-      </c>
-      <c r="N16">
-        <v>800</v>
-      </c>
-      <c r="O16">
-        <v>3.02</v>
-      </c>
-      <c r="P16">
-        <v>10</v>
-      </c>
-      <c r="Q16">
-        <v>14.85</v>
-      </c>
-      <c r="R16">
-        <v>650</v>
-      </c>
-      <c r="S16">
-        <v>3.77</v>
-      </c>
-      <c r="T16">
-        <v>12.5</v>
-      </c>
-      <c r="U16">
-        <v>18.559999999999999</v>
-      </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16">
-        <v>4.53</v>
-      </c>
-      <c r="X16">
-        <v>15</v>
-      </c>
-      <c r="Y16">
-        <v>22.27</v>
-      </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>8.98</v>
-      </c>
-      <c r="C17">
-        <v>23.4</v>
-      </c>
-      <c r="D17">
-        <v>19.75</v>
-      </c>
-      <c r="E17">
-        <v>3127</v>
-      </c>
-      <c r="F17">
-        <v>23.52</v>
-      </c>
-      <c r="G17">
-        <v>61.29</v>
-      </c>
-      <c r="H17">
-        <v>51.74</v>
-      </c>
-      <c r="I17">
-        <v>0.25</v>
-      </c>
-      <c r="J17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17">
-        <v>15.81</v>
-      </c>
-      <c r="L17">
-        <v>41.21</v>
-      </c>
-      <c r="M17">
-        <v>34.78</v>
-      </c>
-      <c r="N17">
-        <v>1024</v>
-      </c>
-      <c r="O17">
-        <v>15.81</v>
-      </c>
-      <c r="P17">
-        <v>41.21</v>
-      </c>
-      <c r="Q17">
-        <v>34.78</v>
-      </c>
-      <c r="R17">
-        <v>750</v>
-      </c>
-      <c r="S17">
-        <v>15.81</v>
-      </c>
-      <c r="T17">
-        <v>41.21</v>
-      </c>
-      <c r="U17">
-        <v>34.78</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17">
-        <v>29.26</v>
-      </c>
-      <c r="X17">
-        <v>76.23</v>
-      </c>
-      <c r="Y17">
-        <v>64.34</v>
-      </c>
-      <c r="Z17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>3.12</v>
-      </c>
-      <c r="C18">
-        <v>4.53</v>
-      </c>
-      <c r="D18">
-        <v>11.18</v>
-      </c>
-      <c r="E18">
-        <v>1738</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>2.89</v>
-      </c>
-      <c r="H18">
-        <v>7.15</v>
-      </c>
-      <c r="I18">
-        <v>2.5</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1.96</v>
-      </c>
-      <c r="L18">
-        <v>2.84</v>
-      </c>
-      <c r="M18">
-        <v>7.01</v>
-      </c>
-      <c r="N18">
-        <v>500</v>
-      </c>
-      <c r="O18">
-        <v>7.31</v>
-      </c>
-      <c r="P18">
-        <v>10.59</v>
-      </c>
-      <c r="Q18">
-        <v>26.16</v>
-      </c>
-      <c r="R18">
-        <v>4200</v>
-      </c>
-      <c r="S18">
-        <v>3.92</v>
-      </c>
-      <c r="T18">
-        <v>5.67</v>
-      </c>
-      <c r="U18">
-        <v>14.02</v>
-      </c>
-      <c r="V18">
-        <v>2</v>
-      </c>
-      <c r="W18">
-        <v>3.92</v>
-      </c>
-      <c r="X18">
-        <v>5.67</v>
-      </c>
-      <c r="Y18">
-        <v>14.02</v>
-      </c>
-      <c r="Z18">
         <v>2</v>
       </c>
     </row>
